--- a/biology/Zoologie/Drépanide_mamo/Drépanide_mamo.xlsx
+++ b/biology/Zoologie/Drépanide_mamo/Drépanide_mamo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr%C3%A9panide_mamo</t>
+          <t>Drépanide_mamo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drepanis pacifica
 Le Drépanide mamo faisait partie des oiseaux butineurs de fleurs vivant uniquement sur l'île d'Hawaï. L'oiseau était très admiré des indigènes de cette île qui le capturaient pour récupérer ses plumes jaunes et brillantes comme de l'or et en orner les vêtements de cérémonie. Une seule cape nécessitait la chasse de dizaines de milliers d'oiseaux ! Les nouveaux colons européens et américains le chassèrent à leur tour, dans l'intention de le vendre à des collectionneurs qui l’appréciaient pour son plumage et son chant. L'espèce se fit de plus en plus rare et finit par disparaître au début du XXe siècle. Son cousin, le Drépanide noir, subit le même sort quelques années plus tard.
